--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2181064.455779971</v>
+        <v>2258592.255609327</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6420672.511903704</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2837136.506768292</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6878920.495689403</v>
+        <v>7079629.257152061</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>256.23636911207</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>164.8930525821996</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -820,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>139.8600882386055</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -835,7 +837,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>217.7709124026737</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>351.4998878521246</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>364.4832772501007</v>
       </c>
       <c r="E5" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>4.641001266096112</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1054,19 +1056,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>93.07289011963975</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>64.88443210550419</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>61.56624592299563</v>
+        <v>13.00730633473924</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1145,13 +1147,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -1196,10 +1198,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>20.57440225990176</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>113.5190044372971</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1372,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>380.3593268106412</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>12.16640533861532</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1531,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
@@ -1588,10 +1590,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059088</v>
+        <v>54.8443519689318</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,13 +1609,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>261.5213176995631</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -1622,7 +1624,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>275.5120998317608</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -1664,16 +1666,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>253.3483825021771</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1844,10 +1846,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>356.8268763394486</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1859,10 +1861,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>177.9195839254089</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>235.5943995055577</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>263.9341599814377</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2087,10 +2089,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
@@ -2138,13 +2140,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>300.4920170745502</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>79.98073849391068</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.4216953850578</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2323,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>351.2228221674562</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
@@ -2333,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>304.7162152260364</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>61.07672839091006</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>180.4964215242407</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>372.3536886992977</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -2573,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>47.64512042712404</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2716,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>110.2831763375965</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2770,16 +2772,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>240.1692396874056</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>368.2758432388709</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2804,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13.98329378456267</v>
+        <v>32.28788838333622</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3037,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>275.5120998317608</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3047,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.73179601342657</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>54.68688746169106</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>239.2824454742743</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3278,7 +3280,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -3332,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>39.93142548241784</v>
       </c>
     </row>
     <row r="36">
@@ -3430,7 +3432,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>55.69551283691953</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -3484,7 +3486,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>63.02663910289075</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3506,7 +3508,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>91.8634291666399</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3521,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>43.42340976889709</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>45.56947953001541</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>136.1769805884548</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,16 +3714,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>1.818951693548895</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,19 +3793,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>300.4920170745502</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>113.9817227768783</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>65.42520756919166</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -3946,25 +3948,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3991,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>26.53725510346182</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>208.642724780751</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>32.92362830719082</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>244.9363209752024</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.889944710562</v>
+        <v>332.990926276226</v>
       </c>
       <c r="C2" t="n">
-        <v>1048.805758064236</v>
+        <v>74.16631101150881</v>
       </c>
       <c r="D2" t="n">
-        <v>1048.3822321977</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E2" t="n">
-        <v>634.0420167145971</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F2" t="n">
-        <v>617.0520087086887</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>208.3237246015209</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
         <v>41.76508562960205</v>
@@ -4328,22 +4330,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>733.4074053521598</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="N2" t="n">
-        <v>1250.250340018485</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O2" t="n">
-        <v>1250.250340018485</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P2" t="n">
         <v>1767.09327468481</v>
@@ -4355,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1866.047797426961</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>1866.047797426961</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W2" t="n">
-        <v>1866.047797426961</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X2" t="n">
-        <v>1866.047797426961</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y2" t="n">
-        <v>1465.111124375051</v>
+        <v>339.1717019003114</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4409,25 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>690.3841994575342</v>
+        <v>497.571341894901</v>
       </c>
       <c r="L3" t="n">
-        <v>1192.007362767164</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="M3" t="n">
-        <v>1192.007362767164</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="N3" t="n">
-        <v>1192.007362767164</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="O3" t="n">
-        <v>1708.850297433489</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>843.6595175967814</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="C4" t="n">
-        <v>843.6595175967814</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="D4" t="n">
-        <v>684.1648729196913</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="E4" t="n">
-        <v>523.2540577880108</v>
+        <v>616.2417941969077</v>
       </c>
       <c r="F4" t="n">
-        <v>358.622931898602</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1288.365834796576</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1288.365834796576</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="W4" t="n">
-        <v>1068.395216208017</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="X4" t="n">
-        <v>1068.395216208017</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="Y4" t="n">
-        <v>843.6595175967814</v>
+        <v>777.1526093285881</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>919.6088695046626</v>
+        <v>852.0323023469566</v>
       </c>
       <c r="C5" t="n">
-        <v>564.5584777348397</v>
+        <v>845.9481157006308</v>
       </c>
       <c r="D5" t="n">
-        <v>160.0945478279002</v>
+        <v>477.7831891853775</v>
       </c>
       <c r="E5" t="n">
-        <v>149.794736385201</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F5" t="n">
-        <v>132.8047283792926</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>1329.636426430007</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="M5" t="n">
-        <v>1329.636426430007</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N5" t="n">
-        <v>1329.636426430007</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O5" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>1730.766722221062</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V5" t="n">
-        <v>1730.766722221062</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W5" t="n">
-        <v>1730.766722221062</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="X5" t="n">
-        <v>1730.766722221062</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="Y5" t="n">
-        <v>1329.830049169152</v>
+        <v>858.213077971042</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>1207.227134123859</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>1207.227134123859</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N6" t="n">
-        <v>1207.227134123859</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129794</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4680,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1078.316550949427</v>
+        <v>866.0507492249653</v>
       </c>
       <c r="C7" t="n">
-        <v>984.303530626559</v>
+        <v>866.0507492249653</v>
       </c>
       <c r="D7" t="n">
-        <v>824.8088859494691</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>824.8088859494691</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>824.8088859494691</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>824.8088859494691</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>675.2014307549257</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>2002.981563155502</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1729.095818095024</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>1729.095818095024</v>
+        <v>1292.094317759326</v>
       </c>
       <c r="X7" t="n">
-        <v>1490.751955954707</v>
+        <v>1053.75045561901</v>
       </c>
       <c r="Y7" t="n">
-        <v>1266.016257343472</v>
+        <v>1053.75045561901</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1348.475650327666</v>
+        <v>1740.93911629311</v>
       </c>
       <c r="C8" t="n">
-        <v>1286.287523132721</v>
+        <v>1727.800423025697</v>
       </c>
       <c r="D8" t="n">
-        <v>1285.863997266186</v>
+        <v>1323.336493118757</v>
       </c>
       <c r="E8" t="n">
-        <v>871.5237817830823</v>
+        <v>908.9962776356538</v>
       </c>
       <c r="F8" t="n">
-        <v>450.4933697367699</v>
+        <v>487.9658655893414</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1688317915616</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1014.011766457887</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>1014.011766457887</v>
+        <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>1530.854701124212</v>
+        <v>2766.381066547325</v>
       </c>
       <c r="O8" t="n">
-        <v>1530.854701124212</v>
+        <v>3410.01192296443</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>1738.416726816583</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>1354.656425951752</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>1354.656425951752</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>1354.656425951752</v>
+        <v>2151.160295957599</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>690.384199457534</v>
+        <v>278.830583030002</v>
       </c>
       <c r="L9" t="n">
-        <v>1207.227134123859</v>
+        <v>939.9187549492902</v>
       </c>
       <c r="M9" t="n">
-        <v>1207.227134123859</v>
+        <v>1541.241509466709</v>
       </c>
       <c r="N9" t="n">
-        <v>1207.227134123859</v>
+        <v>1541.241509466709</v>
       </c>
       <c r="O9" t="n">
-        <v>1724.070068790184</v>
+        <v>1541.241509466709</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>540.3159715352338</v>
+        <v>577.3938871083241</v>
       </c>
       <c r="C10" t="n">
-        <v>519.5337470302825</v>
+        <v>577.3938871083241</v>
       </c>
       <c r="D10" t="n">
-        <v>519.5337470302825</v>
+        <v>417.8992424312341</v>
       </c>
       <c r="E10" t="n">
-        <v>358.622931898602</v>
+        <v>417.8992424312341</v>
       </c>
       <c r="F10" t="n">
-        <v>358.622931898602</v>
+        <v>253.2681165418253</v>
       </c>
       <c r="G10" t="n">
-        <v>191.3725408241454</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1429.024853968129</v>
       </c>
       <c r="T10" t="n">
-        <v>1331.615243227154</v>
+        <v>1314.359192920354</v>
       </c>
       <c r="U10" t="n">
-        <v>1331.615243227154</v>
+        <v>1314.359192920354</v>
       </c>
       <c r="V10" t="n">
-        <v>1057.729498166676</v>
+        <v>1040.473447859876</v>
       </c>
       <c r="W10" t="n">
-        <v>778.6598336755503</v>
+        <v>1040.473447859876</v>
       </c>
       <c r="X10" t="n">
-        <v>540.3159715352338</v>
+        <v>802.1295857195594</v>
       </c>
       <c r="Y10" t="n">
-        <v>540.3159715352338</v>
+        <v>577.3938871083241</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1234.456496290855</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C11" t="n">
-        <v>1234.456496290855</v>
+        <v>1718.036387243042</v>
       </c>
       <c r="D11" t="n">
-        <v>1234.456496290855</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E11" t="n">
-        <v>820.1162808077518</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F11" t="n">
-        <v>399.0858687614393</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>386.7965704396057</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>75.88807306732366</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>75.88807306732366</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>75.88807306732366</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>587.520782711176</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>1300.112182523414</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>2076.430773515168</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2829.611790153786</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3473.242646570891</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3473.242646570891</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3794.403653366183</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3794.403653366183</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3659.122578160284</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>3436.916094107143</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>3179.855602366653</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>2830.018047703134</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>2446.257746838302</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>2045.614349007255</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>1644.677675955345</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>96.63666444708349</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>75.88807306732366</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>75.88807306732366</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>75.88807306732366</v>
+        <v>182.7137268369972</v>
       </c>
       <c r="L12" t="n">
-        <v>75.88807306732366</v>
+        <v>182.7137268369972</v>
       </c>
       <c r="M12" t="n">
-        <v>544.7620862603114</v>
+        <v>182.7137268369972</v>
       </c>
       <c r="N12" t="n">
-        <v>1418.420178371929</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="O12" t="n">
-        <v>2122.377268917824</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P12" t="n">
-        <v>2122.377268917824</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.88807306732366</v>
+        <v>584.619859331578</v>
       </c>
       <c r="C13" t="n">
-        <v>75.88807306732366</v>
+        <v>584.619859331578</v>
       </c>
       <c r="D13" t="n">
-        <v>75.88807306732366</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="E13" t="n">
-        <v>75.88807306732366</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F13" t="n">
-        <v>75.88807306732366</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G13" t="n">
-        <v>75.88807306732366</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>75.88807306732366</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>75.88807306732366</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1333.622483243484</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T13" t="n">
-        <v>1094.073744220186</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U13" t="n">
-        <v>811.2755967663099</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V13" t="n">
-        <v>537.3898517058319</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W13" t="n">
-        <v>258.3201872147063</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="X13" t="n">
-        <v>75.88807306732366</v>
+        <v>584.619859331578</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.88807306732366</v>
+        <v>584.619859331578</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2385.874121837332</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C14" t="n">
-        <v>2121.711174666056</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D14" t="n">
-        <v>1717.247244759116</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E14" t="n">
-        <v>1302.907029276013</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F14" t="n">
-        <v>881.8766172297003</v>
+        <v>866.6187948158295</v>
       </c>
       <c r="G14" t="n">
-        <v>473.1483331225325</v>
+        <v>457.8905107086616</v>
       </c>
       <c r="H14" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>75.88807306732366</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>1580.716543629141</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>2357.035134620895</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>3110.216151259513</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3753.847007676618</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3753.847007676618</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3753.847007676618</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3794.403653366183</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3659.122578160284</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>3436.916094107143</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>3179.855602366653</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>3179.855602366653</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>2796.095301501821</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>2796.095301501821</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>2796.095301501821</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>96.63666444708349</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>75.88807306732366</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>75.88807306732366</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>75.88807306732366</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L15" t="n">
-        <v>75.88807306732366</v>
+        <v>532.5581915209807</v>
       </c>
       <c r="M15" t="n">
-        <v>918.8651537618903</v>
+        <v>532.5581915209807</v>
       </c>
       <c r="N15" t="n">
-        <v>1792.523245873508</v>
+        <v>1406.216283632599</v>
       </c>
       <c r="O15" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P15" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q15" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1165.22192336846</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="C16" t="n">
-        <v>994.1285509301767</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D16" t="n">
-        <v>834.6339062530867</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E16" t="n">
-        <v>673.7230911214062</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F16" t="n">
-        <v>509.0919652319975</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G16" t="n">
-        <v>341.8415741575409</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>192.2341189629975</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>75.88807306732366</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1605.286969688174</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1605.286969688174</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T16" t="n">
-        <v>1605.286969688174</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U16" t="n">
-        <v>1605.286969688174</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V16" t="n">
-        <v>1605.286969688174</v>
+        <v>741.1372444492208</v>
       </c>
       <c r="W16" t="n">
-        <v>1605.286969688174</v>
+        <v>485.2297873763147</v>
       </c>
       <c r="X16" t="n">
-        <v>1577.65732837374</v>
+        <v>485.2297873763147</v>
       </c>
       <c r="Y16" t="n">
-        <v>1352.921629762505</v>
+        <v>260.4940887650794</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2144.727460069145</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>1734.602869382415</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5543,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4347.187057885433</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4090.126566144943</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3740.289011481424</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3356.528710616592</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>2955.885312785545</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2554.948639733635</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L18" t="n">
-        <v>592.7987223006619</v>
+        <v>946.9113481625727</v>
       </c>
       <c r="M18" t="n">
-        <v>1435.775802995229</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>684.7391398019292</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="C19" t="n">
-        <v>684.7391398019292</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="D19" t="n">
-        <v>684.7391398019292</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E19" t="n">
-        <v>523.8283246702488</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5695,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1384.668453396768</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U19" t="n">
-        <v>1384.668453396768</v>
+        <v>844.8292072460731</v>
       </c>
       <c r="V19" t="n">
-        <v>1110.78270833629</v>
+        <v>844.8292072460731</v>
       </c>
       <c r="W19" t="n">
-        <v>1110.78270833629</v>
+        <v>844.8292072460731</v>
       </c>
       <c r="X19" t="n">
-        <v>872.4388461959736</v>
+        <v>606.4853451057564</v>
       </c>
       <c r="Y19" t="n">
-        <v>872.4388461959736</v>
+        <v>606.4853451057564</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F20" t="n">
         <v>899.2322418529996</v>
@@ -5750,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5786,16 +5788,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3744.109543557316</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3360.349242692484</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5831,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4222.119838211426</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="C22" t="n">
-        <v>4051.026465773143</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="D22" t="n">
-        <v>3891.531821096053</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E22" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>4576.912166206539</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T22" t="n">
-        <v>4576.912166206539</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U22" t="n">
-        <v>4576.912166206539</v>
+        <v>1270.189483125459</v>
       </c>
       <c r="V22" t="n">
-        <v>4576.912166206539</v>
+        <v>996.303738064981</v>
       </c>
       <c r="W22" t="n">
-        <v>4576.912166206539</v>
+        <v>717.2340735738553</v>
       </c>
       <c r="X22" t="n">
-        <v>4576.912166206539</v>
+        <v>478.8902114335386</v>
       </c>
       <c r="Y22" t="n">
-        <v>4409.819544605471</v>
+        <v>254.1545128223033</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2459.725286714852</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>2049.600696028122</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1645.136766121183</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E23" t="n">
-        <v>1230.796550638079</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F23" t="n">
-        <v>809.7661385917668</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G23" t="n">
-        <v>401.0378544845989</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H23" t="n">
         <v>93.2436976906228</v>
@@ -5990,7 +5992,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4055.286838127131</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3671.526537262299</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3270.883139431251</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2869.946466379341</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6072,22 +6074,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1066.231502096085</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C25" t="n">
-        <v>895.138129657802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
         <v>93.2436976906228</v>
@@ -6169,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T25" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U25" t="n">
-        <v>1436.250826191383</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V25" t="n">
-        <v>1436.250826191383</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="W25" t="n">
-        <v>1436.250826191383</v>
+        <v>789.1102959217815</v>
       </c>
       <c r="X25" t="n">
-        <v>1436.250826191383</v>
+        <v>550.7664337814649</v>
       </c>
       <c r="Y25" t="n">
-        <v>1253.93120849013</v>
+        <v>326.0307351702296</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455812</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769082</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862143</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790395</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327271</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G26" t="n">
-        <v>452.2785793327271</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>141.3700819604451</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
-        <v>1598.180070079656</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M26" t="n">
-        <v>2374.49866107141</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N26" t="n">
-        <v>3127.679677710028</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
         <v>3771.310534127132</v>
       </c>
       <c r="P26" t="n">
-        <v>4300.467232046284</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q26" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R26" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.903809325241</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.6973252721</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.63683353161</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.799278868091</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003259</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172212</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120302</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6291,7 +6293,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F27" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G27" t="n">
         <v>184.7395020346666</v>
@@ -6300,31 +6302,31 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I27" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.24369769062281</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.24369769062281</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>754.3318696099111</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>1597.308950304478</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N27" t="n">
-        <v>2139.732893541123</v>
+        <v>1406.216283632599</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3625.578320005836</v>
+        <v>365.5516606380573</v>
       </c>
       <c r="C28" t="n">
-        <v>3625.578320005836</v>
+        <v>365.5516606380573</v>
       </c>
       <c r="D28" t="n">
-        <v>3625.578320005836</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E28" t="n">
-        <v>3464.667504874156</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3300.036378984747</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3132.78598791029</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3132.78598791029</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.78598791029</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.868537315501</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037739</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317799</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758292</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152543</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479017</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.65685472863</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.184884531141</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4576.91216620654</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>4390.52039808645</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>4150.971659063152</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U28" t="n">
-        <v>3868.173511609276</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V28" t="n">
-        <v>3625.578320005836</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W28" t="n">
-        <v>3625.578320005836</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="X28" t="n">
-        <v>3625.578320005836</v>
+        <v>590.2873592492926</v>
       </c>
       <c r="Y28" t="n">
-        <v>3625.578320005836</v>
+        <v>365.5516606380573</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2140.463105868917</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>1730.338515182187</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1325.874585275247</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E29" t="n">
-        <v>911.5343697921442</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F29" t="n">
-        <v>490.5039577458317</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6479,34 +6481,34 @@
         <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
-        <v>4300.467232046284</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q29" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R29" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.903809325241</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.6973252721</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.63683353161</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.799278868091</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003259</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172212</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120302</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6528,7 +6530,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F30" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G30" t="n">
         <v>184.7395020346666</v>
@@ -6537,25 +6539,25 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I30" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>93.24369769062281</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851895</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4222.119838211427</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="C31" t="n">
-        <v>4051.026465773144</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D31" t="n">
-        <v>3891.531821096054</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E31" t="n">
-        <v>3730.621005964373</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074964</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000508</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805964</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.78598791029</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.868537315501</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037739</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317799</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758292</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152543</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479017</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.65685472863</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.184884531141</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.184884531141</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>4475.793116411051</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>4236.244377387753</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U31" t="n">
-        <v>4236.244377387753</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V31" t="n">
-        <v>4236.244377387753</v>
+        <v>794.2942153524291</v>
       </c>
       <c r="W31" t="n">
-        <v>4236.244377387753</v>
+        <v>515.2245508613034</v>
       </c>
       <c r="X31" t="n">
-        <v>4236.244377387753</v>
+        <v>515.2245508613034</v>
       </c>
       <c r="Y31" t="n">
-        <v>4236.244377387753</v>
+        <v>290.4888522500681</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2151.931129920876</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>1741.806539234146</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1337.342609327206</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>923.0023938441032</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F32" t="n">
-        <v>501.9719817977906</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4576.597211790305</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4354.390727737164</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4097.330235996674</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>3747.492681333154</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3363.732380468323</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>2963.088982637275</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2562.152309585365</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>355.6459363114127</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>355.6459363114127</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4011.405617385543</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>3840.31224494726</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3680.81760027017</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3519.906785138489</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3355.27565924908</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3188.025268174624</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T34" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U34" t="n">
-        <v>4662.18488453114</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V34" t="n">
-        <v>4662.18488453114</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W34" t="n">
-        <v>4662.18488453114</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X34" t="n">
-        <v>4423.841022390823</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y34" t="n">
-        <v>4199.105323779588</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
         <v>404.1521950629048</v>
@@ -6980,7 +6982,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7019,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1392.027034650488</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1392.027034650488</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>2095.984125196383</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>2095.984125196383</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>252.7383423677128</v>
+        <v>308.996436142379</v>
       </c>
       <c r="C37" t="n">
-        <v>252.7383423677128</v>
+        <v>308.996436142379</v>
       </c>
       <c r="D37" t="n">
-        <v>93.2436976906228</v>
+        <v>149.501791465289</v>
       </c>
       <c r="E37" t="n">
         <v>93.2436976906228</v>
@@ -7117,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>554.7454763291312</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>491.0822045080294</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>252.7383423677128</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>252.7383423677128</v>
+        <v>308.996436142379</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2237.518802661711</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>1827.394211974981</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1277.772921285978</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>856.7425092396657</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>448.0142251324978</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>137.1057277602158</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7175,7 +7177,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3449.320053209158</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3048.67665537811</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2647.7399823262</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7253,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>828.6312213896092</v>
+        <v>751.9929210121334</v>
       </c>
       <c r="C40" t="n">
-        <v>828.6312213896092</v>
+        <v>580.8995485738499</v>
       </c>
       <c r="D40" t="n">
-        <v>828.6312213896092</v>
+        <v>421.4049038967599</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7360,22 +7362,22 @@
         <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U40" t="n">
-        <v>828.6312213896092</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V40" t="n">
-        <v>828.6312213896092</v>
+        <v>1077.092362806305</v>
       </c>
       <c r="W40" t="n">
-        <v>828.6312213896092</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="X40" t="n">
-        <v>828.6312213896092</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="Y40" t="n">
-        <v>828.6312213896092</v>
+        <v>798.0226983151792</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2447.321327612837</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>2037.196736926107</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1632.732807019168</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.392591536065</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>797.3621794897522</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>388.6338953825843</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>77.72539801030234</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>75.88807306732366</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>75.88807306732366</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>614.0475741763632</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>1326.638973988601</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1868.435082391308</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2621.616099029926</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>3265.246955447031</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3794.403653366183</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3794.403653366183</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3794.403653366183</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3659.122578160284</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>3659.122578160284</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>3659.122578160284</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>3659.122578160284</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W41" t="n">
-        <v>3659.122578160284</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X41" t="n">
-        <v>3258.479180329236</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2857.542507277326</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>754.7189149538581</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C42" t="n">
-        <v>620.7238437028037</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D42" t="n">
-        <v>503.8266859221961</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E42" t="n">
-        <v>383.3338699145241</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F42" t="n">
-        <v>274.3739900970288</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G42" t="n">
-        <v>167.3838774113675</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H42" t="n">
-        <v>96.63666444708349</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I42" t="n">
-        <v>75.88807306732366</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J42" t="n">
-        <v>75.88807306732366</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K42" t="n">
-        <v>75.88807306732366</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L42" t="n">
-        <v>75.88807306732366</v>
+        <v>3276.783860599928</v>
       </c>
       <c r="M42" t="n">
-        <v>918.8651537618903</v>
+        <v>4100.47899204261</v>
       </c>
       <c r="N42" t="n">
-        <v>1792.523245873508</v>
+        <v>4100.47899204261</v>
       </c>
       <c r="O42" t="n">
-        <v>2122.377268917824</v>
+        <v>4100.47899204261</v>
       </c>
       <c r="P42" t="n">
-        <v>2122.377268917824</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q42" t="n">
-        <v>2122.377268917824</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R42" t="n">
-        <v>2122.377268917824</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S42" t="n">
-        <v>2014.387259032133</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T42" t="n">
-        <v>1855.045395219141</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U42" t="n">
-        <v>1657.694584357359</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V42" t="n">
-        <v>1443.983057350393</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W42" t="n">
-        <v>1230.749889086722</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X42" t="n">
-        <v>1054.423907225615</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y42" t="n">
-        <v>895.0219475894447</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>258.3201872147063</v>
+        <v>3364.265087115941</v>
       </c>
       <c r="C43" t="n">
-        <v>258.3201872147063</v>
+        <v>3364.265087115941</v>
       </c>
       <c r="D43" t="n">
-        <v>258.3201872147063</v>
+        <v>3364.265087115941</v>
       </c>
       <c r="E43" t="n">
-        <v>258.3201872147063</v>
+        <v>3364.265087115941</v>
       </c>
       <c r="F43" t="n">
-        <v>258.3201872147063</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="G43" t="n">
-        <v>258.3201872147063</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="H43" t="n">
-        <v>192.2341189629975</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I43" t="n">
-        <v>75.88807306732366</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J43" t="n">
-        <v>89.97062247253419</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K43" t="n">
-        <v>244.5229501947722</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L43" t="n">
-        <v>504.4200504748327</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M43" t="n">
-        <v>793.684106915326</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N43" t="n">
-        <v>1074.522889309576</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O43" t="n">
-        <v>1334.08349963605</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.758939885663</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q43" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R43" t="n">
-        <v>1520.014251363573</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S43" t="n">
-        <v>1333.622483243484</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="T43" t="n">
-        <v>1094.073744220186</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="U43" t="n">
-        <v>811.2755967663099</v>
+        <v>4294.114018752663</v>
       </c>
       <c r="V43" t="n">
-        <v>537.3898517058319</v>
+        <v>4294.114018752663</v>
       </c>
       <c r="W43" t="n">
-        <v>258.3201872147063</v>
+        <v>4015.044354261538</v>
       </c>
       <c r="X43" t="n">
-        <v>258.3201872147063</v>
+        <v>3776.700492121221</v>
       </c>
       <c r="Y43" t="n">
-        <v>258.3201872147063</v>
+        <v>3551.964793509986</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2036.755718562691</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>1626.631127875961</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>1222.167197969021</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>807.8269824859181</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>386.7965704396057</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>386.7965704396057</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>75.88807306732366</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>75.88807306732366</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>770.9554846042623</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>770.9554846042623</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1547.274075596016</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2300.455092234634</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2944.085948651739</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3473.242646570891</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3794.403653366183</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3794.403653366183</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3659.122578160284</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>3659.122578160284</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>3632.317269974969</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V44" t="n">
-        <v>3632.317269974969</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W44" t="n">
-        <v>3248.556969110137</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X44" t="n">
-        <v>2847.91357127909</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>2446.97689822718</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2426.745299402217</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>2292.750228151163</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>2175.853070370556</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>2055.360254362884</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>1946.400374545388</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>1839.410261859727</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>1768.663048895443</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>1747.914457515683</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>1747.914457515683</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>1747.914457515683</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L45" t="n">
-        <v>1747.914457515683</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M45" t="n">
-        <v>2590.89153821025</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N45" t="n">
-        <v>3464.549630321867</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="O45" t="n">
-        <v>3794.403653366183</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>3794.403653366183</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
-        <v>3794.403653366183</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>3794.403653366183</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>3686.413643480492</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>3527.0717796675</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>3329.720968805719</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>3116.009441798753</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>2902.776273535081</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>2726.450291673974</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>2567.048332037804</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>341.8415741575409</v>
+        <v>419.9887334421693</v>
       </c>
       <c r="C46" t="n">
-        <v>341.8415741575409</v>
+        <v>419.9887334421693</v>
       </c>
       <c r="D46" t="n">
-        <v>341.8415741575409</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E46" t="n">
-        <v>341.8415741575409</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F46" t="n">
-        <v>341.8415741575409</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G46" t="n">
-        <v>341.8415741575409</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>192.2341189629975</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>75.88807306732366</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1605.286969688174</v>
+        <v>1589.386404102189</v>
       </c>
       <c r="T46" t="n">
-        <v>1605.286969688174</v>
+        <v>1349.837665078891</v>
       </c>
       <c r="U46" t="n">
-        <v>1357.876544460697</v>
+        <v>1349.837665078891</v>
       </c>
       <c r="V46" t="n">
-        <v>1083.990799400219</v>
+        <v>1349.837665078891</v>
       </c>
       <c r="W46" t="n">
-        <v>804.9211349090929</v>
+        <v>1070.768000587766</v>
       </c>
       <c r="X46" t="n">
-        <v>566.5772727687762</v>
+        <v>832.4241384474491</v>
       </c>
       <c r="Y46" t="n">
-        <v>341.8415741575409</v>
+        <v>607.6884398362138</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>269.8552598673813</v>
+        <v>535.1658287548266</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8055,16 +8057,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>562.8045877599696</v>
+        <v>66.81615635993558</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
@@ -8073,10 +8075,10 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>231.0841246958424</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>535.0653799235644</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
@@ -8304,19 +8306,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>63.89502594283636</v>
       </c>
       <c r="O6" t="n">
-        <v>72.2360729453882</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>549.1401736751965</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>496.0520662103268</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8532,28 +8534,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>664.9610054731834</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>422.1224761037303</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>605.9371064851891</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
@@ -8705,13 +8707,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,13 +8771,13 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>146.199549599135</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>531.1743980747686</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>935.6763147186165</v>
@@ -8787,10 +8789,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8932,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>815.1656990578182</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
         <v>877.4504173780091</v>
@@ -8942,10 +8944,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9003,22 +9005,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>305.1060755964295</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9027,7 +9029,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9240,13 +9242,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>560.7155587704844</v>
+        <v>723.6446176586437</v>
       </c>
       <c r="M18" t="n">
         <v>909.0562844399999</v>
@@ -9255,13 +9257,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9477,25 +9479,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>694.8191058394766</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9720,25 +9722,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>557.7944283533855</v>
+        <v>501.9723301574554</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,22 +9953,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>601.0963663600581</v>
+        <v>56.49167641875563</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -9975,7 +9977,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,19 +10196,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>885.2086776792871</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10425,10 +10427,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>126.1180868837635</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
@@ -10437,19 +10439,19 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,7 +10667,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
@@ -10674,19 +10676,19 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>71.02519323424302</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,13 +10825,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N38" t="n">
         <v>853.701196452193</v>
@@ -10899,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>55.82578278461539</v>
@@ -10911,13 +10913,13 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>506.72204501473</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11066,7 +11068,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>640.5590208234162</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
@@ -11078,10 +11080,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,19 +11144,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>889.5795680239552</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11297,10 +11299,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>534.4716826723932</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
         <v>877.4504173780091</v>
@@ -11312,13 +11314,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11378,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>390.9373608629449</v>
+        <v>743.7439864875635</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>25.66401796922139</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>392.4745959274808</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23419,16 +23421,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300467</v>
+        <v>181.1160715499817</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23495,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>144.5020270802995</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>22.9305853440373</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23732,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>49.19646844041398</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>42.06483528720082</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.558852127507208</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>16.03600599789934</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -23975,10 +23977,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>25.66401796922133</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24026,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>45.84716204233393</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>199.9894274854264</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.06664624006515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24209,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>49.19646844041387</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>3.08319717252283</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24254,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.7459809391939</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,19 +24420,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>41.9919201008822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24449,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>37.84312462897452</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>37.84312462897353</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24604,16 +24606,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>47.61652189272262</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>30.97764792246761</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>37.84312462897361</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>171.8394155455413</v>
+        <v>153.5348209467677</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24923,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>49.19646844041357</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>93.42449318090684</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>40.68772050506274</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
     </row>
     <row r="36">
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>103.6061941434442</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>213.2523287433236</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25394,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>308.5558614412301</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>42.06483528720048</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>140.2532298000885</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>23.12472639190895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>83.66929336254867</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>96.14494677818681</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25795,13 +25797,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>49.00309185363635</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>82.68617307340625</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>227.9526317196232</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>187.994239071986</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26035,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,16 +26073,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>151.604222131698</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>35.03384500413472</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>525087.4054615855</v>
+        <v>593779.7684469419</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>525087.4054615856</v>
+        <v>593779.7684469421</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>593779.7684469421</v>
+        <v>593779.768446942</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>593779.7684469421</v>
+        <v>593779.7684469422</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>593779.768446942</v>
+        <v>593779.7684469421</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>593779.768446942</v>
+        <v>593779.7684469421</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>593779.7684469421</v>
+        <v>593779.7684469422</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>593779.768446942</v>
+        <v>593779.7684469421</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>593779.7684469419</v>
+        <v>593779.7684469421</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>525087.4054615857</v>
+        <v>593779.7684469422</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>525087.4054615857</v>
+        <v>593779.7684469419</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>472358.9397941252</v>
       </c>
       <c r="C2" t="n">
-        <v>472358.9397941254</v>
+        <v>472358.9397941253</v>
       </c>
       <c r="D2" t="n">
         <v>472358.9397941252</v>
       </c>
       <c r="E2" t="n">
-        <v>371403.286789902</v>
+        <v>419990.5679258857</v>
       </c>
       <c r="F2" t="n">
-        <v>371403.286789902</v>
+        <v>419990.5679258858</v>
       </c>
       <c r="G2" t="n">
-        <v>419990.5679258858</v>
+        <v>419990.567925886</v>
       </c>
       <c r="H2" t="n">
         <v>419990.567925886</v>
       </c>
       <c r="I2" t="n">
-        <v>419990.5679258854</v>
+        <v>419990.567925886</v>
       </c>
       <c r="J2" t="n">
         <v>419990.5679258857</v>
       </c>
       <c r="K2" t="n">
+        <v>419990.5679258861</v>
+      </c>
+      <c r="L2" t="n">
+        <v>419990.567925886</v>
+      </c>
+      <c r="M2" t="n">
         <v>419990.5679258857</v>
       </c>
-      <c r="L2" t="n">
-        <v>419990.5679258859</v>
-      </c>
-      <c r="M2" t="n">
-        <v>419990.5679258858</v>
-      </c>
       <c r="N2" t="n">
+        <v>419990.5679258861</v>
+      </c>
+      <c r="O2" t="n">
         <v>419990.567925886</v>
       </c>
-      <c r="O2" t="n">
-        <v>371403.2867899021</v>
-      </c>
       <c r="P2" t="n">
-        <v>371403.286789902</v>
+        <v>419990.567925886</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>127354.6667897506</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59461.45468596181</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>106294.8120178747</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>155118.3712081971</v>
       </c>
       <c r="D4" t="n">
-        <v>155118.3712081971</v>
+        <v>57848.94447198566</v>
       </c>
       <c r="E4" t="n">
-        <v>635.5614479011375</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="F4" t="n">
-        <v>635.5614479011375</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="G4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="H4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="I4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="J4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="K4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="L4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="M4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="N4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
-        <v>635.5614479011375</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="P4" t="n">
-        <v>635.5614479011375</v>
+        <v>738.1279301446465</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>57674.93553116597</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>57674.93553116597</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26491,10 +26493,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="J5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="K5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="L5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>57674.93553116597</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>57674.93553116597</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>76915.99361431654</v>
       </c>
       <c r="C6" t="n">
-        <v>251871.5035074308</v>
+        <v>251871.5035074306</v>
       </c>
       <c r="D6" t="n">
-        <v>251871.5035074306</v>
+        <v>143681.4550568709</v>
       </c>
       <c r="E6" t="n">
-        <v>185738.1230210843</v>
+        <v>321418.2755699335</v>
       </c>
       <c r="F6" t="n">
-        <v>313092.7898108349</v>
+        <v>348387.2297508679</v>
       </c>
       <c r="G6" t="n">
-        <v>288925.775064906</v>
+        <v>348387.229750868</v>
       </c>
       <c r="H6" t="n">
         <v>348387.229750868</v>
       </c>
       <c r="I6" t="n">
-        <v>348387.2297508675</v>
+        <v>348387.229750868</v>
       </c>
       <c r="J6" t="n">
-        <v>211792.4289449727</v>
+        <v>211792.4289449728</v>
       </c>
       <c r="K6" t="n">
-        <v>348387.2297508677</v>
+        <v>348387.2297508681</v>
       </c>
       <c r="L6" t="n">
-        <v>348387.2297508679</v>
+        <v>208387.9188861153</v>
       </c>
       <c r="M6" t="n">
-        <v>242092.4177329931</v>
+        <v>325877.9649768203</v>
       </c>
       <c r="N6" t="n">
+        <v>348387.2297508681</v>
+      </c>
+      <c r="O6" t="n">
         <v>348387.229750868</v>
       </c>
-      <c r="O6" t="n">
-        <v>313092.789810835</v>
-      </c>
       <c r="P6" t="n">
-        <v>313092.7898108349</v>
+        <v>348387.229750868</v>
       </c>
     </row>
   </sheetData>
@@ -26762,7 +26764,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.893300060910416e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26793,13 +26795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>948.6009133415457</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>948.6009133415457</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>948.6009133415457</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>948.6009133415457</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>426.5373429715202</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>216.9453077912392</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700258</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715202</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715202</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>216.9453077912392</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>149.7869756677925</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>142.9063598163596</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -27540,13 +27542,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>23.12472639190912</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>58.50805544354066</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>54.52345692773793</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>35.93601335776935</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -27774,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>76.3095485942609</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>93.01526612481489</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -27831,16 +27833,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>393.0160384451233</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>344.4570988568669</v>
-      </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28013,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>148.8080364539989</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -28059,10 +28061,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>123.6342471957678</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -33187,19 +33189,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1.201113364269831e-13</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.336470047518939e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1.358095530124212e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.282411098041085e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.094508202548719e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>176.5650354103359</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34775,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>506.6900639491206</v>
+        <v>10.70163254908653</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>135.5987266329975</v>
+      </c>
+      <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>441.8756042977812</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
@@ -35024,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>10.70163254908636</v>
       </c>
       <c r="O6" t="n">
-        <v>14.48459394538821</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>460.0037840019794</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>403.1397754537075</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35252,28 +35254,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>607.3967217347659</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>367.8628411009266</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>516.8007168119721</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
@@ -35425,13 +35427,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>90.37376681451964</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>473.6101143363513</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>882.4829213248665</v>
@@ -35507,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,7 +35652,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>719.6803009949733</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
@@ -35662,10 +35664,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35723,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>248.9915517855805</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35960,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>504.6010349596355</v>
+        <v>667.5300938477947</v>
       </c>
       <c r="M18" t="n">
         <v>851.4920007015825</v>
@@ -35975,13 +35977,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>637.2548221010592</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>504.6010349596355</v>
+        <v>448.7789367637054</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>547.9029729663082</v>
+        <v>3.298283025005639</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,19 +36837,19 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L29" t="n">
-        <v>719.7892927396344</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M29" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N29" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O29" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P29" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q29" t="n">
         <v>324.4050573689818</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>832.0152842855372</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>70.29230409914815</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37159,19 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,19 +37396,19 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>14.3325747294043</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N38" t="n">
         <v>760.7889056955737</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37631,13 +37633,13 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>453.52865162098</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37786,7 +37788,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>547.2687963663707</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
         <v>760.7889056955737</v>
@@ -37798,10 +37800,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>832.0152842855377</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,10 +38019,10 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>445.3352929991761</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
         <v>784.1601929209636</v>
@@ -38032,13 +38034,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>333.1858818629449</v>
+        <v>685.9925074875634</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2258592.255609327</v>
+        <v>2257279.610153748</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029742</v>
+        <v>5301029.81102974</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789206</v>
+        <v>2166967.111789205</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>256.23636911207</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>134.0272338384587</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>139.8600882386055</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>144.2018606410489</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>100.3730371763027</v>
       </c>
       <c r="D5" t="n">
-        <v>364.4832772501007</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>4.641001266096112</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -955,13 +955,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1056,25 +1056,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>64.88443210550419</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>266.2723283900668</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -1122,7 +1122,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>13.00730633473924</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -1144,7 +1144,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>23.80406948072579</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -1308,10 +1308,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>113.5190044372971</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1372,7 +1372,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>380.3593268106412</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -1381,7 +1381,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
@@ -1390,7 +1390,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1536,16 +1536,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>152.4257537695879</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>54.8443519689318</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -1624,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>275.5120998317608</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>118.2743011645353</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>253.3483825021771</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1846,7 +1846,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>356.8268763394486</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1855,16 +1855,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>59.82422708687632</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>263.9341599814377</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>117.1883812417367</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>22.92681701721022</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U22" t="n">
-        <v>79.98073849391068</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2323,7 +2323,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>351.2228221674562</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>119.8051733265733</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>61.07672839091006</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>185.3545489754683</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2563,13 +2563,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>372.3536886992977</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
@@ -2608,10 +2608,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>110.2831763375965</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
@@ -2772,10 +2772,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>92.87131833808823</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>271.4342543713331</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2806,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.28788838333622</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -3012,10 +3012,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>104.4010226578154</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3037,7 +3037,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>275.5120998317608</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3046,10 +3046,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>22.92681701721022</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2824454742743</v>
+        <v>137.8797272855246</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3283,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>119.8051733265735</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3334,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>39.93142548241784</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>55.69551283691953</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>142.6473018196747</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3520,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>43.42340976889709</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>261.9522503562252</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>45.56947953001541</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3669,13 +3669,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>28.20190571915381</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>334.0755358138493</v>
       </c>
       <c r="X41" t="n">
-        <v>300.4920170745502</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3900,25 +3900,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>113.9817227768783</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>36.96692989184554</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -4030,10 +4030,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4042,7 +4042,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>208.642724780751</v>
+        <v>174.1372571702758</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>32.92362830719082</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>215.3171805741346</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.990926276226</v>
+        <v>1689.631969834255</v>
       </c>
       <c r="C2" t="n">
-        <v>74.16631101150881</v>
+        <v>1279.507379147526</v>
       </c>
       <c r="D2" t="n">
-        <v>73.74278514497341</v>
+        <v>875.0434492405863</v>
       </c>
       <c r="E2" t="n">
-        <v>63.44297370227418</v>
+        <v>864.743637797887</v>
       </c>
       <c r="F2" t="n">
-        <v>46.45296569636579</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4333,49 +4333,49 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="L2" t="n">
         <v>812.7934917636817</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>1329.636426430007</v>
       </c>
-      <c r="M2" t="n">
-        <v>1767.09327468481</v>
-      </c>
       <c r="N2" t="n">
-        <v>1767.09327468481</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O2" t="n">
-        <v>1767.09327468481</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="X2" t="n">
-        <v>740.1083749522213</v>
+        <v>1695.812745458341</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.1717019003114</v>
+        <v>1695.812745458341</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>497.571341894901</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="L3" t="n">
-        <v>508.1659581184966</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="M3" t="n">
-        <v>1025.008892784822</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N3" t="n">
-        <v>1025.008892784822</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.1526093285881</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C4" t="n">
-        <v>777.1526093285881</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>777.1526093285881</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>616.2417941969077</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1425.505537158483</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>1142.707389704608</v>
       </c>
       <c r="V4" t="n">
-        <v>777.1526093285881</v>
+        <v>1142.707389704608</v>
       </c>
       <c r="W4" t="n">
-        <v>777.1526093285881</v>
+        <v>863.6377252134819</v>
       </c>
       <c r="X4" t="n">
-        <v>777.1526093285881</v>
+        <v>625.2938630731653</v>
       </c>
       <c r="Y4" t="n">
-        <v>777.1526093285881</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>852.0323023469566</v>
+        <v>261.9049799331252</v>
       </c>
       <c r="C5" t="n">
-        <v>845.9481157006308</v>
+        <v>160.5180736944356</v>
       </c>
       <c r="D5" t="n">
-        <v>477.7831891853775</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E5" t="n">
-        <v>467.4833777426783</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F5" t="n">
-        <v>46.45296569636579</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4570,13 +4570,13 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>176.0078249962696</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>692.8507596625949</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N5" t="n">
         <v>692.8507596625949</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1608.987305686471</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>1259.149751022952</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W5" t="n">
-        <v>1259.149751022952</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X5" t="n">
-        <v>1259.149751022952</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="Y5" t="n">
-        <v>858.213077971042</v>
+        <v>672.1261595976147</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>537.7254774811262</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>537.7254774811262</v>
       </c>
       <c r="N6" t="n">
-        <v>1025.008892784821</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O6" t="n">
-        <v>1541.851827451147</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>866.0507492249653</v>
+        <v>372.3531027449756</v>
       </c>
       <c r="C7" t="n">
-        <v>866.0507492249653</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4761,16 +4761,16 @@
         <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>1302.202034381698</v>
       </c>
       <c r="W7" t="n">
-        <v>1292.094317759326</v>
+        <v>1023.132369890572</v>
       </c>
       <c r="X7" t="n">
-        <v>1053.75045561901</v>
+        <v>784.7885077502552</v>
       </c>
       <c r="Y7" t="n">
-        <v>1053.75045561901</v>
+        <v>560.0528091390199</v>
       </c>
     </row>
     <row r="8">
@@ -4783,13 +4783,13 @@
         <v>1740.93911629311</v>
       </c>
       <c r="C8" t="n">
-        <v>1727.800423025697</v>
+        <v>1330.81452560638</v>
       </c>
       <c r="D8" t="n">
-        <v>1323.336493118757</v>
+        <v>926.3505956994404</v>
       </c>
       <c r="E8" t="n">
-        <v>908.9962776356538</v>
+        <v>512.0103802163371</v>
       </c>
       <c r="F8" t="n">
         <v>487.9658655893414</v>
@@ -4816,16 +4816,16 @@
         <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>2766.381066547325</v>
+        <v>3120.453705486772</v>
       </c>
       <c r="O8" t="n">
-        <v>3410.01192296443</v>
+        <v>3764.084561903877</v>
       </c>
       <c r="P8" t="n">
-        <v>3939.168620883581</v>
+        <v>3979.725266573146</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678873</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="R8" t="n">
         <v>4300.886273368438</v>
@@ -4889,16 +4889,16 @@
         <v>278.830583030002</v>
       </c>
       <c r="L9" t="n">
-        <v>939.9187549492902</v>
+        <v>278.830583030002</v>
       </c>
       <c r="M9" t="n">
-        <v>1541.241509466709</v>
+        <v>525.3322192977264</v>
       </c>
       <c r="N9" t="n">
-        <v>1541.241509466709</v>
+        <v>1398.990311409344</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.241509466709</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="P9" t="n">
         <v>2102.947401955239</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>577.3938871083241</v>
+        <v>1175.351575768505</v>
       </c>
       <c r="C10" t="n">
-        <v>577.3938871083241</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="D10" t="n">
-        <v>417.8992424312341</v>
+        <v>844.7635586531319</v>
       </c>
       <c r="E10" t="n">
-        <v>417.8992424312341</v>
+        <v>683.8527435214513</v>
       </c>
       <c r="F10" t="n">
-        <v>253.2681165418253</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="G10" t="n">
-        <v>86.01772546736876</v>
+        <v>351.971226557586</v>
       </c>
       <c r="H10" t="n">
-        <v>86.01772546736876</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
         <v>86.01772546736876</v>
@@ -4989,25 +4989,25 @@
         <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1429.024853968129</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1314.359192920354</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1314.359192920354</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>1040.473447859876</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>1040.473447859876</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="X10" t="n">
-        <v>802.1295857195594</v>
+        <v>1587.786980773785</v>
       </c>
       <c r="Y10" t="n">
-        <v>577.3938871083241</v>
+        <v>1363.05128216255</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C11" t="n">
-        <v>1718.036387243042</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D11" t="n">
-        <v>1313.572457336103</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E11" t="n">
-        <v>899.2322418529996</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F11" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G11" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H11" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T11" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>106.311454618312</v>
       </c>
       <c r="K12" t="n">
-        <v>182.7137268369972</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="L12" t="n">
-        <v>182.7137268369972</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="M12" t="n">
-        <v>182.7137268369972</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N12" t="n">
-        <v>1056.371818948615</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O12" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>584.619859331578</v>
+        <v>884.4724116164617</v>
       </c>
       <c r="C13" t="n">
-        <v>584.619859331578</v>
+        <v>884.4724116164617</v>
       </c>
       <c r="D13" t="n">
-        <v>425.1252146544881</v>
+        <v>724.9777669393718</v>
       </c>
       <c r="E13" t="n">
-        <v>425.1252146544881</v>
+        <v>564.0669518076913</v>
       </c>
       <c r="F13" t="n">
-        <v>260.4940887650794</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G13" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H13" t="n">
         <v>93.2436976906228</v>
@@ -5226,25 +5226,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>913.9039397142094</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V13" t="n">
-        <v>640.0181946537314</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W13" t="n">
-        <v>640.0181946537314</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="X13" t="n">
-        <v>584.619859331578</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="Y13" t="n">
-        <v>584.619859331578</v>
+        <v>884.4724116164617</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C14" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D14" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E14" t="n">
-        <v>1287.649206862142</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F14" t="n">
-        <v>866.6187948158295</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G14" t="n">
-        <v>457.8905107086616</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4526.90380932524</v>
+        <v>4630.445217422097</v>
       </c>
       <c r="T14" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U14" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V14" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W14" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X14" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y14" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>532.5581915209807</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>532.5581915209807</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N15" t="n">
-        <v>1406.216283632599</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O15" t="n">
-        <v>2110.173374178493</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
         <v>2110.173374178493</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>260.4940887650794</v>
+        <v>569.5961886367127</v>
       </c>
       <c r="C16" t="n">
-        <v>260.4940887650794</v>
+        <v>569.5961886367127</v>
       </c>
       <c r="D16" t="n">
-        <v>260.4940887650794</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="E16" t="n">
-        <v>260.4940887650794</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F16" t="n">
-        <v>260.4940887650794</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G16" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1297.821136963575</v>
+        <v>1503.173603236185</v>
       </c>
       <c r="U16" t="n">
-        <v>1015.022989509699</v>
+        <v>1220.375455782309</v>
       </c>
       <c r="V16" t="n">
-        <v>741.1372444492208</v>
+        <v>1220.375455782309</v>
       </c>
       <c r="W16" t="n">
-        <v>485.2297873763147</v>
+        <v>1220.375455782309</v>
       </c>
       <c r="X16" t="n">
-        <v>485.2297873763147</v>
+        <v>982.0315936419923</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.4940887650794</v>
+        <v>757.295895030757</v>
       </c>
     </row>
     <row r="17">
@@ -5494,22 +5494,22 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>1741.806539234146</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1337.342609327206</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>923.0023938441032</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F17" t="n">
-        <v>501.9719817977906</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="G17" t="n">
-        <v>93.2436976906228</v>
+        <v>464.5807072718708</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>153.6722098995888</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5597,25 +5597,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>946.9113481625727</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="M18" t="n">
-        <v>1789.888428857139</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="N18" t="n">
-        <v>1789.888428857139</v>
+        <v>1056.371818948615</v>
       </c>
       <c r="O18" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P18" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>418.7856387117121</v>
+        <v>428.968196018315</v>
       </c>
       <c r="C19" t="n">
-        <v>418.7856387117121</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D19" t="n">
-        <v>418.7856387117121</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E19" t="n">
         <v>257.8748235800315</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>844.8292072460731</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>844.8292072460731</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>844.8292072460731</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>606.4853451057564</v>
+        <v>428.968196018315</v>
       </c>
       <c r="Y19" t="n">
-        <v>606.4853451057564</v>
+        <v>428.968196018315</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>899.2322418529996</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5791,13 +5791,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>947.1447271725442</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1350.978107866783</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.189483125459</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V22" t="n">
-        <v>996.303738064981</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W22" t="n">
-        <v>717.2340735738553</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X22" t="n">
-        <v>478.8902114335386</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y22" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D23" t="n">
-        <v>1337.342609327206</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E23" t="n">
-        <v>923.0023938441032</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F23" t="n">
-        <v>501.9719817977906</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6022,19 +6022,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="24">
@@ -6068,19 +6068,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M24" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N24" t="n">
-        <v>1198.623017005979</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O24" t="n">
         <v>1198.623017005979</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>264.3370701289063</v>
+        <v>697.2455944695239</v>
       </c>
       <c r="C25" t="n">
-        <v>93.2436976906228</v>
+        <v>697.2455944695239</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>537.7509497924339</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1350.978107866783</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>1068.179960412907</v>
+        <v>1195.867038141237</v>
       </c>
       <c r="V25" t="n">
-        <v>1068.179960412907</v>
+        <v>921.9812930807592</v>
       </c>
       <c r="W25" t="n">
-        <v>789.1102959217815</v>
+        <v>921.9812930807592</v>
       </c>
       <c r="X25" t="n">
-        <v>550.7664337814649</v>
+        <v>921.9812930807592</v>
       </c>
       <c r="Y25" t="n">
-        <v>326.0307351702296</v>
+        <v>697.2455944695239</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>911.5343697921442</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
         <v>490.5039577458317</v>
@@ -6256,22 +6256,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>741.8628115185547</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L27" t="n">
-        <v>1402.950983437843</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M27" t="n">
-        <v>1402.950983437843</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N27" t="n">
-        <v>1406.216283632599</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O27" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
         <v>2110.173374178493</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>365.5516606380573</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C28" t="n">
-        <v>365.5516606380573</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>828.6312213896092</v>
+        <v>1006.486295371584</v>
       </c>
       <c r="W28" t="n">
-        <v>828.6312213896092</v>
+        <v>727.4166308804582</v>
       </c>
       <c r="X28" t="n">
-        <v>590.2873592492926</v>
+        <v>489.0727687401416</v>
       </c>
       <c r="Y28" t="n">
-        <v>365.5516606380573</v>
+        <v>264.3370701289063</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2785793327262</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1521950629048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L30" t="n">
-        <v>754.331869609911</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M30" t="n">
-        <v>754.331869609911</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N30" t="n">
-        <v>1578.027001052593</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6645,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1350.978107866783</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>1068.179960412907</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>794.2942153524291</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>515.2245508613034</v>
+        <v>720.9543843315835</v>
       </c>
       <c r="X31" t="n">
-        <v>515.2245508613034</v>
+        <v>482.6105221912669</v>
       </c>
       <c r="Y31" t="n">
-        <v>290.4888522500681</v>
+        <v>257.8748235800315</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>1009.35415652703</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6739,13 +6739,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6782,16 +6782,16 @@
         <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>355.6459363114127</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L33" t="n">
-        <v>355.6459363114127</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.623017005979</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N33" t="n">
-        <v>1198.623017005979</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O33" t="n">
         <v>1198.623017005979</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T34" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U34" t="n">
-        <v>1109.278667993779</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V34" t="n">
-        <v>835.3929229333004</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W34" t="n">
-        <v>556.3232584421747</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X34" t="n">
-        <v>317.9793963018581</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.2436976906228</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2462.839627293158</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C35" t="n">
-        <v>2052.715036606428</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D35" t="n">
-        <v>1648.251106699488</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E35" t="n">
-        <v>1233.910891216385</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F35" t="n">
-        <v>812.8804791700727</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1521950629048</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6970,19 +6970,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y35" t="n">
-        <v>2873.060806957647</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>549.0499539559215</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>1392.027034650488</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N36" t="n">
-        <v>1392.027034650488</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O36" t="n">
-        <v>2095.984125196383</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
-        <v>2095.984125196383</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>308.996436142379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>308.996436142379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>149.501791465289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
         <v>93.2436976906228</v>
@@ -7119,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T37" t="n">
-        <v>1383.093855288175</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U37" t="n">
-        <v>1100.295707834299</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V37" t="n">
-        <v>826.4099627738212</v>
+        <v>741.1372444492208</v>
       </c>
       <c r="W37" t="n">
-        <v>547.3402982826956</v>
+        <v>462.0675799580952</v>
       </c>
       <c r="X37" t="n">
-        <v>308.996436142379</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y37" t="n">
-        <v>308.996436142379</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D38" t="n">
-        <v>1692.113136769081</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E38" t="n">
-        <v>1277.772921285978</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F38" t="n">
-        <v>856.7425092396657</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G38" t="n">
-        <v>448.0142251324978</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1057277602158</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7216,10 +7216,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>286.056555253256</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>1129.033635947823</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N39" t="n">
-        <v>1578.027001052593</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O39" t="n">
-        <v>1578.027001052593</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>751.9929210121334</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8995485738499</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D40" t="n">
-        <v>421.4049038967599</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>1350.978107866783</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U40" t="n">
-        <v>1350.978107866783</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V40" t="n">
-        <v>1077.092362806305</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W40" t="n">
-        <v>798.0226983151792</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="X40" t="n">
-        <v>798.0226983151792</v>
+        <v>611.5314212000407</v>
       </c>
       <c r="Y40" t="n">
-        <v>798.0226983151792</v>
+        <v>611.5314212000407</v>
       </c>
     </row>
     <row r="41">
@@ -7447,10 +7447,10 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>4047.636833531609</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>3663.876532666778</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="X41" t="n">
         <v>3360.349242692484</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>3276.783860599928</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M42" t="n">
-        <v>4100.47899204261</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N42" t="n">
-        <v>4100.47899204261</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O42" t="n">
-        <v>4100.47899204261</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P42" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q42" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3364.265087115941</v>
+        <v>898.981111021629</v>
       </c>
       <c r="C43" t="n">
-        <v>3364.265087115941</v>
+        <v>727.8877385833455</v>
       </c>
       <c r="D43" t="n">
-        <v>3364.265087115941</v>
+        <v>568.3930939062554</v>
       </c>
       <c r="E43" t="n">
-        <v>3364.265087115941</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="F43" t="n">
-        <v>3249.132033805963</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G43" t="n">
-        <v>3249.132033805963</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H43" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>4294.114018752663</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V43" t="n">
-        <v>4294.114018752663</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W43" t="n">
-        <v>4015.044354261538</v>
+        <v>1311.416516026909</v>
       </c>
       <c r="X43" t="n">
-        <v>3776.700492121221</v>
+        <v>1311.416516026909</v>
       </c>
       <c r="Y43" t="n">
-        <v>3551.964793509986</v>
+        <v>1086.680817415673</v>
       </c>
     </row>
     <row r="44">
@@ -7678,16 +7678,16 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U44" t="n">
-        <v>4304.697325272099</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V44" t="n">
-        <v>3954.85977060858</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W44" t="n">
-        <v>3571.099469743748</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X44" t="n">
         <v>3360.349242692484</v>
@@ -7727,25 +7727,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>549.0499539559215</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>549.0499539559215</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N45" t="n">
-        <v>549.0499539559215</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>419.9887334421693</v>
+        <v>854.4163417856223</v>
       </c>
       <c r="C46" t="n">
-        <v>419.9887334421693</v>
+        <v>683.3229693473388</v>
       </c>
       <c r="D46" t="n">
-        <v>260.4940887650794</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="E46" t="n">
-        <v>260.4940887650794</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="F46" t="n">
-        <v>260.4940887650794</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G46" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>1589.386404102189</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T46" t="n">
-        <v>1349.837665078891</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U46" t="n">
-        <v>1349.837665078891</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V46" t="n">
-        <v>1349.837665078891</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="W46" t="n">
-        <v>1070.768000587766</v>
+        <v>1071.908443375657</v>
       </c>
       <c r="X46" t="n">
-        <v>832.4241384474491</v>
+        <v>854.4163417856223</v>
       </c>
       <c r="Y46" t="n">
-        <v>607.6884398362138</v>
+        <v>854.4163417856223</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>535.1658287548266</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
@@ -7999,10 +7999,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>293.2845869185513</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,10 +8060,10 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>173.5595280421011</v>
       </c>
       <c r="L3" t="n">
-        <v>66.81615635993558</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>579.627854108443</v>
@@ -8078,7 +8078,7 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8218,16 +8218,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>231.0841246958424</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
@@ -8294,19 +8294,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>362.3241544056883</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>63.89502594283636</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
@@ -8318,7 +8318,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8464,19 +8464,19 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>496.0520662103268</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>628.1510783507341</v>
+        <v>311.4682568862063</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8537,19 +8537,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>664.9610054731834</v>
+        <v>306.5558355239976</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>64.56899327241334</v>
       </c>
       <c r="K12" t="n">
-        <v>146.199549599135</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
@@ -8789,10 +8789,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9005,13 +9005,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>305.1060755964295</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
@@ -9023,10 +9023,10 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>144.6334018173235</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,19 +9245,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.6446176586437</v>
+        <v>373.8003899018191</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9266,7 +9266,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,13 +9482,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>694.8191058394766</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
@@ -9500,10 +9500,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,22 +9716,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>501.9723301574554</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
@@ -9956,25 +9956,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>56.49167641875563</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>885.2086776792871</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,19 +10430,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>126.1180868837635</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.02519323424302</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,13 +10831,13 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N38" t="n">
         <v>853.701196452193</v>
       </c>
       <c r="O38" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P38" t="n">
         <v>628.1510783507341</v>
@@ -10904,28 +10904,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N39" t="n">
-        <v>506.72204501473</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,16 +11138,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>889.5795680239552</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
@@ -11156,13 +11156,13 @@
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
@@ -11375,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>743.7439864875635</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>25.66401796922139</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>10.55906086092676</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23466,13 +23466,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>181.1160715499817</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>102.5059940158878</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>118.8789504685296</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>22.9305853440373</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>49.19646844041398</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>25.66401796922125</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>16.03600599789934</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>118.7720422771767</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23977,10 +23977,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U22" t="n">
-        <v>199.9894274854264</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>49.19646844041387</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>124.7459809391939</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>94.61561700386875</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24451,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>37.84312462897452</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>47.61652189272262</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>178.275569271785</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>134.6847134965115</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.5348209467677</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>171.877945188399</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>40.68772050506274</v>
+        <v>142.0904386938125</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>187.9942390719856</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>356.9958808389729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,10 +25317,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>103.6061941434442</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>93.31312169923876</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06483528720048</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.2532298000885</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>207.7585177997596</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25687,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>45.84716204233376</v>
       </c>
       <c r="X41" t="n">
-        <v>96.14494677818681</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>49.00309185363635</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
@@ -25842,16 +25842,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>239.3120379543688</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>187.994239071986</v>
+        <v>222.4997066824612</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>151.604222131698</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>20.64324294477885</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>593779.7684469419</v>
+        <v>593779.768446942</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>593779.768446942</v>
+        <v>593779.7684469422</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>593779.7684469421</v>
+        <v>593779.7684469419</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>593779.768446942</v>
+        <v>593779.7684469422</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>593779.7684469421</v>
+        <v>593779.768446942</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>593779.7684469419</v>
+        <v>593779.7684469421</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472358.9397941252</v>
+        <v>472358.9397941253</v>
       </c>
       <c r="C2" t="n">
-        <v>472358.9397941253</v>
+        <v>472358.9397941254</v>
       </c>
       <c r="D2" t="n">
-        <v>472358.9397941252</v>
+        <v>472358.939794125</v>
       </c>
       <c r="E2" t="n">
+        <v>419990.5679258861</v>
+      </c>
+      <c r="F2" t="n">
         <v>419990.5679258857</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>419990.5679258858</v>
       </c>
-      <c r="G2" t="n">
-        <v>419990.567925886</v>
-      </c>
       <c r="H2" t="n">
-        <v>419990.567925886</v>
+        <v>419990.5679258858</v>
       </c>
       <c r="I2" t="n">
         <v>419990.567925886</v>
       </c>
       <c r="J2" t="n">
-        <v>419990.5679258857</v>
+        <v>419990.5679258859</v>
       </c>
       <c r="K2" t="n">
-        <v>419990.5679258861</v>
+        <v>419990.5679258859</v>
       </c>
       <c r="L2" t="n">
+        <v>419990.5679258858</v>
+      </c>
+      <c r="M2" t="n">
         <v>419990.567925886</v>
       </c>
-      <c r="M2" t="n">
-        <v>419990.5679258857</v>
-      </c>
       <c r="N2" t="n">
-        <v>419990.5679258861</v>
+        <v>419990.567925886</v>
       </c>
       <c r="O2" t="n">
-        <v>419990.567925886</v>
+        <v>419990.5679258859</v>
       </c>
       <c r="P2" t="n">
         <v>419990.567925886</v>
@@ -26423,34 +26423,34 @@
         <v>155118.3712081971</v>
       </c>
       <c r="D4" t="n">
-        <v>57848.94447198566</v>
+        <v>57848.94447198568</v>
       </c>
       <c r="E4" t="n">
+        <v>738.1279301446466</v>
+      </c>
+      <c r="F4" t="n">
+        <v>738.1279301446464</v>
+      </c>
+      <c r="G4" t="n">
+        <v>738.1279301446466</v>
+      </c>
+      <c r="H4" t="n">
         <v>738.1279301446465</v>
       </c>
-      <c r="F4" t="n">
-        <v>738.1279301446465</v>
-      </c>
-      <c r="G4" t="n">
-        <v>738.1279301446465</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>738.1279301446466</v>
       </c>
-      <c r="I4" t="n">
-        <v>738.1279301446465</v>
-      </c>
       <c r="J4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="K4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="L4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="M4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="N4" t="n">
         <v>738.1279301446466</v>
@@ -26459,7 +26459,7 @@
         <v>738.1279301446466</v>
       </c>
       <c r="P4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76915.99361431654</v>
+        <v>76915.99361431666</v>
       </c>
       <c r="C6" t="n">
-        <v>251871.5035074306</v>
+        <v>251871.5035074308</v>
       </c>
       <c r="D6" t="n">
-        <v>143681.4550568709</v>
+        <v>143681.4550568706</v>
       </c>
       <c r="E6" t="n">
-        <v>321418.2755699335</v>
+        <v>321237.6949772848</v>
       </c>
       <c r="F6" t="n">
-        <v>348387.2297508679</v>
+        <v>348206.6491582186</v>
       </c>
       <c r="G6" t="n">
-        <v>348387.229750868</v>
+        <v>348206.6491582188</v>
       </c>
       <c r="H6" t="n">
-        <v>348387.229750868</v>
+        <v>348206.6491582188</v>
       </c>
       <c r="I6" t="n">
-        <v>348387.229750868</v>
+        <v>348206.6491582189</v>
       </c>
       <c r="J6" t="n">
-        <v>211792.4289449728</v>
+        <v>211611.8483523238</v>
       </c>
       <c r="K6" t="n">
-        <v>348387.2297508681</v>
+        <v>348206.6491582188</v>
       </c>
       <c r="L6" t="n">
-        <v>208387.9188861153</v>
+        <v>208207.338293466</v>
       </c>
       <c r="M6" t="n">
-        <v>325877.9649768203</v>
+        <v>325697.3843841715</v>
       </c>
       <c r="N6" t="n">
-        <v>348387.2297508681</v>
+        <v>348206.6491582189</v>
       </c>
       <c r="O6" t="n">
-        <v>348387.229750868</v>
+        <v>348206.6491582188</v>
       </c>
       <c r="P6" t="n">
-        <v>348387.229750868</v>
+        <v>348206.6491582189</v>
       </c>
     </row>
   </sheetData>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>149.7869756677925</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>262.6097300142783</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>23.12472639190912</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>92.95139099201603</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>305.6503076035599</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>35.93601335776935</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>93.01526612481489</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>4.874559219806486</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>393.0160384451233</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>393.0160384451235</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,22 +28061,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>123.6342471957678</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34701,16 +34701,16 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>441.8756042977812</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34719,10 +34719,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>117.7337452574857</v>
       </c>
       <c r="L3" t="n">
-        <v>10.70163254908653</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>522.0635703700256</v>
@@ -34798,7 +34798,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34938,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>135.5987266329975</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>306.2096305948393</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>10.70163254908636</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
@@ -35038,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35184,19 +35184,19 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>403.1397754537075</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>534.50171506985</v>
+        <v>217.8188936053221</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>607.3967217347659</v>
+        <v>248.9915517855802</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>13.19975447241332</v>
       </c>
       <c r="K12" t="n">
-        <v>90.37376681451964</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>248.9915517855805</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>90.3737668145198</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>29.85810036629282</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.5300938477947</v>
+        <v>317.6858660909701</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36202,13 +36202,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>637.2548221010592</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>448.7789367637054</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P24" t="n">
         <v>567.3796893823536</v>
@@ -36676,25 +36676,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>3.298283025005639</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>29.85810036629282</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>832.0152842855372</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>70.29230409914815</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
@@ -37323,7 +37323,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P35" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q35" t="n">
         <v>324.4050573689818</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>14.3325747294043</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,13 +37551,13 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
         <v>760.7889056955737</v>
       </c>
       <c r="O38" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P38" t="n">
         <v>534.50171506985</v>
@@ -37624,28 +37624,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N39" t="n">
-        <v>453.52865162098</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>832.0152842855377</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>685.9925074875634</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
